--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Project\BI\xiaocBI-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E4F6B-4C96-449C-826B-E7D517955406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFA8464-A892-4612-B815-C5A261291FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,68 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>语文成绩</t>
+  </si>
+  <si>
+    <t>数学成绩</t>
+  </si>
+  <si>
+    <t>英语成绩</t>
+  </si>
+  <si>
+    <t>小明</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>小刚</t>
+  </si>
+  <si>
+    <t>小美</t>
+  </si>
+  <si>
+    <t>小亮</t>
   </si>
 </sst>
 </file>
@@ -105,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -115,12 +80,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -128,37 +87,90 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="15.75"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <sz val="15.75"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -167,18 +179,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -493,63 +512,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.75" style="5"/>
+    <col min="4" max="4" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="B3" s="4">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4">
+        <v>88</v>
+      </c>
+      <c r="D3" s="5">
+        <v>85</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="4">
+        <v>78</v>
+      </c>
+      <c r="C4" s="4">
+        <v>85</v>
+      </c>
+      <c r="D4" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="4">
+        <v>90</v>
+      </c>
+      <c r="C5" s="4">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B6" s="4">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4">
+        <v>80</v>
+      </c>
+      <c r="D6" s="5">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/test_excel.xlsx
+++ b/src/main/resources/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Project\BI\xiaocBI-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFA8464-A892-4612-B815-C5A261291FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4C87D-9366-4288-91F5-CFE60749100D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -36,31 +36,119 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>语文成绩</t>
-  </si>
-  <si>
-    <t>数学成绩</t>
-  </si>
-  <si>
-    <t>英语成绩</t>
-  </si>
-  <si>
-    <t>小明</t>
-  </si>
-  <si>
-    <t>小红</t>
-  </si>
-  <si>
-    <t>小刚</t>
-  </si>
-  <si>
-    <t>小美</t>
-  </si>
-  <si>
-    <t>小亮</t>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.75"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.75"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.75"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.75"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.75"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.75"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.75"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -70,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -98,6 +186,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15.75"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -179,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +291,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -524,87 +625,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>85</v>
-      </c>
-      <c r="C2" s="4">
-        <v>78</v>
-      </c>
-      <c r="D2" s="5">
-        <v>90</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>92</v>
-      </c>
-      <c r="C3" s="4">
-        <v>88</v>
-      </c>
-      <c r="D3" s="5">
-        <v>85</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
+      <c r="A4" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>78</v>
-      </c>
-      <c r="C4" s="4">
-        <v>85</v>
-      </c>
-      <c r="D4" s="5">
-        <v>80</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
+      <c r="A5" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>90</v>
-      </c>
-      <c r="C5" s="4">
-        <v>92</v>
-      </c>
-      <c r="D5" s="5">
-        <v>88</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4">
-        <v>80</v>
-      </c>
-      <c r="D6" s="5">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
